--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -1129,7 +1129,7 @@
     <numFmt numFmtId="178" formatCode="&quot;周&quot;aaa\ m/dd/yy"/>
     <numFmt numFmtId="179" formatCode="d"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1211,11 +1211,6 @@
       <name val="黑体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1777,63 +1772,63 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2021,20 +2016,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -3005,186 +2991,186 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.858407079646" style="74" customWidth="1"/>
-    <col min="2" max="2" width="2.56637168141593" style="74" customWidth="1"/>
-    <col min="3" max="17" width="10.4247787610619" style="74" customWidth="1"/>
-    <col min="18" max="18" width="2.56637168141593" style="74" customWidth="1"/>
-    <col min="19" max="16384" width="9.14159292035398" style="74"/>
+    <col min="1" max="1" width="13.858407079646" style="71" customWidth="1"/>
+    <col min="2" max="2" width="2.56637168141593" style="71" customWidth="1"/>
+    <col min="3" max="17" width="10.4247787610619" style="71" customWidth="1"/>
+    <col min="18" max="18" width="2.56637168141593" style="71" customWidth="1"/>
+    <col min="19" max="16384" width="9.14159292035398" style="71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="2:18">
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="75"/>
-      <c r="R2" s="75"/>
+      <c r="B2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="75"/>
-      <c r="R3" s="75"/>
+      <c r="B3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="B4" s="72"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="B5" s="72"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="75"/>
-      <c r="R6" s="75"/>
+      <c r="B6" s="72"/>
+      <c r="R6" s="72"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="75"/>
-      <c r="R7" s="75"/>
+      <c r="B7" s="72"/>
+      <c r="R7" s="72"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="75"/>
-      <c r="R8" s="75"/>
+      <c r="B8" s="72"/>
+      <c r="R8" s="72"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="75"/>
-      <c r="R9" s="75"/>
+      <c r="B9" s="72"/>
+      <c r="R9" s="72"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="75"/>
-      <c r="R10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="R10" s="72"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="B11" s="72"/>
+      <c r="R11" s="72"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="75"/>
-      <c r="R12" s="75"/>
+      <c r="B12" s="72"/>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="75"/>
-      <c r="R13" s="75"/>
+      <c r="B13" s="72"/>
+      <c r="R13" s="72"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="75"/>
-      <c r="R14" s="75"/>
+      <c r="B14" s="72"/>
+      <c r="R14" s="72"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="B15" s="72"/>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="75"/>
-      <c r="R16" s="75"/>
+      <c r="B16" s="72"/>
+      <c r="R16" s="72"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="75"/>
-      <c r="R17" s="75"/>
+      <c r="B17" s="72"/>
+      <c r="R17" s="72"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="75"/>
-      <c r="R18" s="75"/>
+      <c r="B18" s="72"/>
+      <c r="R18" s="72"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="75"/>
-      <c r="R19" s="75"/>
+      <c r="B19" s="72"/>
+      <c r="R19" s="72"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="75"/>
-      <c r="R20" s="75"/>
+      <c r="B20" s="72"/>
+      <c r="R20" s="72"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="75"/>
-      <c r="R21" s="75"/>
+      <c r="B21" s="72"/>
+      <c r="R21" s="72"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="75"/>
-      <c r="R22" s="75"/>
+      <c r="B22" s="72"/>
+      <c r="R22" s="72"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="75"/>
-      <c r="R23" s="75"/>
+      <c r="B23" s="72"/>
+      <c r="R23" s="72"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="75"/>
-      <c r="R24" s="75"/>
+      <c r="B24" s="72"/>
+      <c r="R24" s="72"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="75"/>
-      <c r="R25" s="75"/>
+      <c r="B25" s="72"/>
+      <c r="R25" s="72"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="75"/>
-      <c r="R26" s="75"/>
+      <c r="B26" s="72"/>
+      <c r="R26" s="72"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="75"/>
-      <c r="R27" s="75"/>
+      <c r="B27" s="72"/>
+      <c r="R27" s="72"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="75"/>
-      <c r="R28" s="75"/>
+      <c r="B28" s="72"/>
+      <c r="R28" s="72"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="75"/>
-      <c r="R29" s="75"/>
+      <c r="B29" s="72"/>
+      <c r="R29" s="72"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="75"/>
-      <c r="R30" s="75"/>
+      <c r="B30" s="72"/>
+      <c r="R30" s="72"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="75"/>
-      <c r="R31" s="75"/>
+      <c r="B31" s="72"/>
+      <c r="R31" s="72"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="75"/>
-      <c r="R32" s="75"/>
+      <c r="B32" s="72"/>
+      <c r="R32" s="72"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="75"/>
-      <c r="R33" s="75"/>
+      <c r="B33" s="72"/>
+      <c r="R33" s="72"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="75"/>
-      <c r="R34" s="75"/>
+      <c r="B34" s="72"/>
+      <c r="R34" s="72"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="75"/>
-      <c r="R35" s="75"/>
+      <c r="B35" s="72"/>
+      <c r="R35" s="72"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="2:18">
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,35 +3248,35 @@
       <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" ht="13.5" spans="1:5">
       <c r="A7" s="27" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="71"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="34" t="str">
         <f t="shared" ref="A8:A16" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3299,319 +3285,319 @@
       <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="34" t="str">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="34" t="str">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.2</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="70" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" ht="13.5" spans="1:5">
       <c r="A17" s="41" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="71"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" ht="13.5" spans="1:5">
       <c r="A23" s="41" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" ht="13.5" spans="1:5">
       <c r="A29" s="41" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="71"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="69"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="34" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.5</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -3639,9 +3625,9 @@
   <dimension ref="A1:CH78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomLeft" activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75"/>
@@ -5130,17 +5116,17 @@
       </c>
       <c r="E14" s="37">
         <f t="shared" si="35"/>
-        <v>45749</v>
+        <v>45748</v>
       </c>
       <c r="F14" s="38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="39">
         <v>1</v>
       </c>
       <c r="H14" s="40">
         <f t="shared" si="36"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="59"/>
       <c r="J14" s="60"/>
@@ -5294,11 +5280,11 @@
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="36">
-        <v>45750</v>
+        <v>45749</v>
       </c>
       <c r="E16" s="37">
         <f t="shared" si="35"/>
-        <v>45756</v>
+        <v>45755</v>
       </c>
       <c r="F16" s="38">
         <v>7</v>
@@ -7056,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="39">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="H37" s="40">
         <f t="shared" si="36"/>
@@ -7140,7 +7126,7 @@
         <v>15</v>
       </c>
       <c r="G38" s="39">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="H38" s="40">
         <f t="shared" si="36"/>
@@ -7224,7 +7210,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="39">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H39" s="40">
         <f t="shared" si="36"/>
@@ -7308,7 +7294,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="39">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="H40" s="40">
         <f t="shared" si="36"/>
@@ -7392,7 +7378,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="39">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H41" s="40">
         <f t="shared" si="36"/>
@@ -7476,7 +7462,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H42" s="40">
         <f t="shared" si="36"/>
@@ -7560,7 +7546,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="39">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="40">
         <f t="shared" si="36"/>
@@ -7644,7 +7630,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="39">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H44" s="40">
         <f t="shared" si="36"/>
@@ -7728,7 +7714,7 @@
         <v>19</v>
       </c>
       <c r="G45" s="39">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H45" s="40">
         <f t="shared" si="36"/>
@@ -7812,7 +7798,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="39">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H46" s="40">
         <f t="shared" si="36"/>
@@ -7896,7 +7882,7 @@
         <v>18</v>
       </c>
       <c r="G47" s="39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H47" s="40">
         <f t="shared" si="36"/>
@@ -10651,7 +10637,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc07e32a-96bc-4c3d-aa3d-8d973504f45d}</x14:id>
+          <x14:id>{70bfad87-a20c-4320-bb34-9c112269101f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10665,7 +10651,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{535ac2d1-8127-41ad-8198-8b5c918c2180}</x14:id>
+          <x14:id>{52eb4110-09c8-4a3a-9fc8-aeff05ad6b1a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10679,7 +10665,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cec3a70e-c241-45e2-8ce9-dad2e025ceb0}</x14:id>
+          <x14:id>{7b1d950e-3b86-46dd-ab5f-212ab6bb816c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10693,7 +10679,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e317c97-932b-4893-b1fd-71fb00308b5c}</x14:id>
+          <x14:id>{18a6eef8-65fd-44e2-bc8c-cbfa2e94c57a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10707,7 +10693,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f27779bf-85e7-4c97-bbd5-1a05465a74de}</x14:id>
+          <x14:id>{2380a7f4-428c-4b50-8fe8-baf7ce1e9c3a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10721,7 +10707,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d76e9d1-017e-43f2-b1bf-d541307f886d}</x14:id>
+          <x14:id>{0706e1c4-181a-4fe6-ae1b-6de42cda6586}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10735,7 +10721,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9da2f567-3f4b-4000-a63c-6014a8ce2174}</x14:id>
+          <x14:id>{54b09635-2b63-41a7-af5e-4c1cafbae0eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10749,7 +10735,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d454c2e8-1fa0-4c3d-b219-8f034d8d3947}</x14:id>
+          <x14:id>{beb87ab7-fd00-4949-8a37-7c4ffbbdbf03}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10763,7 +10749,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d107d0ce-571b-44fc-9fc1-3483bb3739e1}</x14:id>
+          <x14:id>{c946a75c-7e57-43ab-855d-8c911b4bde19}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10777,7 +10763,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b502fc0-6978-4619-9351-43c497592bfa}</x14:id>
+          <x14:id>{8eb3e03c-4f9e-496d-b570-e5430c0bc1a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10791,7 +10777,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21d153a1-045d-49ae-8870-6900f6956e68}</x14:id>
+          <x14:id>{99051212-2754-42c2-9a57-d6fbc09e4895}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10805,7 +10791,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96a406ac-dd93-40cf-9f4a-91d98ad0e56e}</x14:id>
+          <x14:id>{f1f96614-aa0a-4e5b-a035-7beed9e556b1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10819,7 +10805,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{529c5527-9e8d-4618-b897-ba8a76fa85ee}</x14:id>
+          <x14:id>{5a29d738-da29-4fd1-a788-c11d0fb846f8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10833,7 +10819,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8934e1b3-0611-42a4-a6fd-cc156e69ebb5}</x14:id>
+          <x14:id>{df68f0cc-641b-4ee7-9783-765c2e1fe33b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10847,7 +10833,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b246563f-eb32-494a-96a2-1bd3c79efb0f}</x14:id>
+          <x14:id>{80863224-5389-4803-8efe-e7aac5eb26a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10861,7 +10847,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fce759ca-a184-4578-af79-86ad5796854f}</x14:id>
+          <x14:id>{c977cd7e-b5ce-4bff-85bc-c05f83cf99ea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10875,7 +10861,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9acbc72d-7786-4395-87d7-a30c7425eddb}</x14:id>
+          <x14:id>{263d322c-2605-4ff8-b106-56ddf95b08f3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10889,7 +10875,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3974efe0-1cde-404d-b5c9-1338290365e1}</x14:id>
+          <x14:id>{10b4d228-1d8d-4314-bc8b-a582b1d51d44}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10903,7 +10889,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6f0c2e4-5f8c-47d1-9836-0879384abb97}</x14:id>
+          <x14:id>{06c0c5b0-78b7-4d4f-a595-1b65ee0431a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10917,7 +10903,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08cd61e6-9d72-4e31-8f25-e182ec9a274c}</x14:id>
+          <x14:id>{01ff6e29-50f5-4058-b778-ed5443f43316}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10931,7 +10917,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7d968a9d-f8dc-42ca-b1de-053615607a81}</x14:id>
+          <x14:id>{5e8309d2-0b4f-453a-9071-20e370be8cbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10945,7 +10931,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22dc17e3-6bac-453a-91b0-ca48a6eef810}</x14:id>
+          <x14:id>{ebbac927-c5dc-4f0f-9114-2ffcb3b8e976}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10959,7 +10945,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f41b402-006a-4970-8784-346d2e4a97b9}</x14:id>
+          <x14:id>{0964c1db-fb1e-4370-845d-4b7fc37da4d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10973,7 +10959,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f301d02-bf5a-402e-a9a3-5d454cfdfdb2}</x14:id>
+          <x14:id>{128e97a7-f1b9-4aa6-997c-5265335b4e5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10987,7 +10973,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5ad7bac-d269-437b-88d4-b240fe6c20a7}</x14:id>
+          <x14:id>{3f07f07f-5528-4c97-bfb7-ee593045ca04}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11001,7 +10987,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1031950d-0f65-4027-a601-6f12d75e59d6}</x14:id>
+          <x14:id>{c113e421-3fa3-4bb7-bc03-b0a1a7d54384}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11015,7 +11001,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83969110-3026-43e9-99ef-e7f361c0e603}</x14:id>
+          <x14:id>{077fd9f4-d73d-42cb-bfa5-2a9aadf1b2a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11029,7 +11015,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6da1aab5-6f2b-47d0-a38b-032f1fb69d56}</x14:id>
+          <x14:id>{dc3da221-2238-4403-a49d-c7ba7bf021b0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11043,7 +11029,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d414fa43-fab2-4c84-9984-05a885928728}</x14:id>
+          <x14:id>{a2082b07-5f80-4c34-a4df-5bc13ad8bd78}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11057,7 +11043,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd03f0b7-1214-4dba-a01c-d9e145cbe7e2}</x14:id>
+          <x14:id>{bc4d8010-e836-4dba-a3f4-81198b6a4f51}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11071,7 +11057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c9e71835-32ca-4bc4-bc8a-d503a27989ce}</x14:id>
+          <x14:id>{b1f44b3a-e0fc-42af-b3d1-9639fb0cfd9f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11085,7 +11071,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{969bd6c8-d1f5-4bf8-bd4c-19bcb13689c1}</x14:id>
+          <x14:id>{6eae8cc3-b3b3-49fd-bb36-9713e563426a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11099,7 +11085,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3d6d84f-4657-4bd2-8f75-c95c1df0c413}</x14:id>
+          <x14:id>{4b8475bd-4f9c-43f0-a8aa-5e9e511a1212}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11113,7 +11099,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af45055e-71a5-493e-b07a-6119f0a58aba}</x14:id>
+          <x14:id>{02e0d91d-c48b-46c9-8ff7-bfae729ae080}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11127,7 +11113,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dac44598-d801-4943-95d4-6aae60f28841}</x14:id>
+          <x14:id>{efc05f65-e5ea-498f-a951-53f336fe5246}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11141,7 +11127,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc4bc02b-b668-45e7-812d-6092bdd7b661}</x14:id>
+          <x14:id>{774d6c23-fa5c-4ce9-a556-51c0d8d66220}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11155,7 +11141,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29edfcfb-fdaa-4d81-812a-c5c969868a11}</x14:id>
+          <x14:id>{32520adf-50d4-4aa3-9587-540e9bc009a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11169,7 +11155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67236213-7033-4a97-8b06-cd7cf591e77c}</x14:id>
+          <x14:id>{36dca147-4dd4-4319-813e-b5906a1681d0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11183,7 +11169,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66aed971-7f35-4878-b223-a7e1fc753511}</x14:id>
+          <x14:id>{1aeb8039-4818-403c-ba8c-eb571baa3bcf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11197,7 +11183,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f0be4f02-fddc-4f1f-bd67-cdfd1a726f3b}</x14:id>
+          <x14:id>{ada1752e-56b6-4548-9b35-ee20b6755b7c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11211,7 +11197,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f4a00e4-4f62-4220-ae03-efa757ec1c2a}</x14:id>
+          <x14:id>{b6505818-4292-417f-a4e9-2dd252340d31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11236,7 +11222,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d21e8c09-1d53-4c47-8511-ded5ff157c46}</x14:id>
+          <x14:id>{b52a49ff-ccd8-4de3-ba1e-27b985e97dab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11250,7 +11236,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0aa1d928-b3dc-4203-88c7-685a6ac0b70f}</x14:id>
+          <x14:id>{6601fafc-14e5-4c19-a6aa-6b87dd8ef597}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11264,7 +11250,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4abbaef8-c1bb-4643-b166-6695c865b852}</x14:id>
+          <x14:id>{2ac6c9a7-7627-43b5-a865-125ab32b6375}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11278,7 +11264,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a07dfbc-a275-4c9a-aa05-a3827fedf4a7}</x14:id>
+          <x14:id>{7d5266a9-42d7-4a60-afd2-96a4761fae53}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11440,8 +11426,8 @@
   <pageSetup paperSize="1" scale="60" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A17 A8 A11" formula="1"/>
-    <ignoredError sqref="F17:G17 D17 A2 F11:G11 F8:G8 D11 D8" unlockedFormula="1"/>
+    <ignoredError sqref="A11 A8 A17" formula="1"/>
+    <ignoredError sqref="D8 D11 F8:G8 F11:G11 A2 D17 F17:G17" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11477,7 +11463,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc07e32a-96bc-4c3d-aa3d-8d973504f45d}">
+          <x14:cfRule type="dataBar" id="{70bfad87-a20c-4320-bb34-9c112269101f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11492,7 +11478,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{535ac2d1-8127-41ad-8198-8b5c918c2180}">
+          <x14:cfRule type="dataBar" id="{52eb4110-09c8-4a3a-9fc8-aeff05ad6b1a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11507,7 +11493,7 @@
           <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cec3a70e-c241-45e2-8ce9-dad2e025ceb0}">
+          <x14:cfRule type="dataBar" id="{7b1d950e-3b86-46dd-ab5f-212ab6bb816c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11522,7 +11508,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1e317c97-932b-4893-b1fd-71fb00308b5c}">
+          <x14:cfRule type="dataBar" id="{18a6eef8-65fd-44e2-bc8c-cbfa2e94c57a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11537,7 +11523,7 @@
           <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f27779bf-85e7-4c97-bbd5-1a05465a74de}">
+          <x14:cfRule type="dataBar" id="{2380a7f4-428c-4b50-8fe8-baf7ce1e9c3a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11552,7 +11538,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3d76e9d1-017e-43f2-b1bf-d541307f886d}">
+          <x14:cfRule type="dataBar" id="{0706e1c4-181a-4fe6-ae1b-6de42cda6586}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11567,7 +11553,7 @@
           <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9da2f567-3f4b-4000-a63c-6014a8ce2174}">
+          <x14:cfRule type="dataBar" id="{54b09635-2b63-41a7-af5e-4c1cafbae0eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11582,7 +11568,7 @@
           <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d454c2e8-1fa0-4c3d-b219-8f034d8d3947}">
+          <x14:cfRule type="dataBar" id="{beb87ab7-fd00-4949-8a37-7c4ffbbdbf03}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11597,7 +11583,7 @@
           <xm:sqref>G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d107d0ce-571b-44fc-9fc1-3483bb3739e1}">
+          <x14:cfRule type="dataBar" id="{c946a75c-7e57-43ab-855d-8c911b4bde19}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11612,7 +11598,7 @@
           <xm:sqref>G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b502fc0-6978-4619-9351-43c497592bfa}">
+          <x14:cfRule type="dataBar" id="{8eb3e03c-4f9e-496d-b570-e5430c0bc1a5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11627,7 +11613,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21d153a1-045d-49ae-8870-6900f6956e68}">
+          <x14:cfRule type="dataBar" id="{99051212-2754-42c2-9a57-d6fbc09e4895}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11642,7 +11628,7 @@
           <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96a406ac-dd93-40cf-9f4a-91d98ad0e56e}">
+          <x14:cfRule type="dataBar" id="{f1f96614-aa0a-4e5b-a035-7beed9e556b1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11657,7 +11643,7 @@
           <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{529c5527-9e8d-4618-b897-ba8a76fa85ee}">
+          <x14:cfRule type="dataBar" id="{5a29d738-da29-4fd1-a788-c11d0fb846f8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11672,7 +11658,7 @@
           <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8934e1b3-0611-42a4-a6fd-cc156e69ebb5}">
+          <x14:cfRule type="dataBar" id="{df68f0cc-641b-4ee7-9783-765c2e1fe33b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11687,7 +11673,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b246563f-eb32-494a-96a2-1bd3c79efb0f}">
+          <x14:cfRule type="dataBar" id="{80863224-5389-4803-8efe-e7aac5eb26a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11702,7 +11688,7 @@
           <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fce759ca-a184-4578-af79-86ad5796854f}">
+          <x14:cfRule type="dataBar" id="{c977cd7e-b5ce-4bff-85bc-c05f83cf99ea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11717,7 +11703,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9acbc72d-7786-4395-87d7-a30c7425eddb}">
+          <x14:cfRule type="dataBar" id="{263d322c-2605-4ff8-b106-56ddf95b08f3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11732,7 +11718,7 @@
           <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3974efe0-1cde-404d-b5c9-1338290365e1}">
+          <x14:cfRule type="dataBar" id="{10b4d228-1d8d-4314-bc8b-a582b1d51d44}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11747,7 +11733,7 @@
           <xm:sqref>G46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c6f0c2e4-5f8c-47d1-9836-0879384abb97}">
+          <x14:cfRule type="dataBar" id="{06c0c5b0-78b7-4d4f-a595-1b65ee0431a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11762,7 +11748,7 @@
           <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08cd61e6-9d72-4e31-8f25-e182ec9a274c}">
+          <x14:cfRule type="dataBar" id="{01ff6e29-50f5-4058-b778-ed5443f43316}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11777,7 +11763,7 @@
           <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7d968a9d-f8dc-42ca-b1de-053615607a81}">
+          <x14:cfRule type="dataBar" id="{5e8309d2-0b4f-453a-9071-20e370be8cbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11792,7 +11778,7 @@
           <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22dc17e3-6bac-453a-91b0-ca48a6eef810}">
+          <x14:cfRule type="dataBar" id="{ebbac927-c5dc-4f0f-9114-2ffcb3b8e976}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11807,7 +11793,7 @@
           <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f41b402-006a-4970-8784-346d2e4a97b9}">
+          <x14:cfRule type="dataBar" id="{0964c1db-fb1e-4370-845d-4b7fc37da4d3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11822,7 +11808,7 @@
           <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f301d02-bf5a-402e-a9a3-5d454cfdfdb2}">
+          <x14:cfRule type="dataBar" id="{128e97a7-f1b9-4aa6-997c-5265335b4e5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11837,7 +11823,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5ad7bac-d269-437b-88d4-b240fe6c20a7}">
+          <x14:cfRule type="dataBar" id="{3f07f07f-5528-4c97-bfb7-ee593045ca04}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11852,7 +11838,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1031950d-0f65-4027-a601-6f12d75e59d6}">
+          <x14:cfRule type="dataBar" id="{c113e421-3fa3-4bb7-bc03-b0a1a7d54384}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11867,7 +11853,7 @@
           <xm:sqref>G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83969110-3026-43e9-99ef-e7f361c0e603}">
+          <x14:cfRule type="dataBar" id="{077fd9f4-d73d-42cb-bfa5-2a9aadf1b2a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11882,7 +11868,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6da1aab5-6f2b-47d0-a38b-032f1fb69d56}">
+          <x14:cfRule type="dataBar" id="{dc3da221-2238-4403-a49d-c7ba7bf021b0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11897,7 +11883,7 @@
           <xm:sqref>G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d414fa43-fab2-4c84-9984-05a885928728}">
+          <x14:cfRule type="dataBar" id="{a2082b07-5f80-4c34-a4df-5bc13ad8bd78}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11912,7 +11898,7 @@
           <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd03f0b7-1214-4dba-a01c-d9e145cbe7e2}">
+          <x14:cfRule type="dataBar" id="{bc4d8010-e836-4dba-a3f4-81198b6a4f51}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11927,7 +11913,7 @@
           <xm:sqref>G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c9e71835-32ca-4bc4-bc8a-d503a27989ce}">
+          <x14:cfRule type="dataBar" id="{b1f44b3a-e0fc-42af-b3d1-9639fb0cfd9f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11942,7 +11928,7 @@
           <xm:sqref>G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{969bd6c8-d1f5-4bf8-bd4c-19bcb13689c1}">
+          <x14:cfRule type="dataBar" id="{6eae8cc3-b3b3-49fd-bb36-9713e563426a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11957,7 +11943,7 @@
           <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3d6d84f-4657-4bd2-8f75-c95c1df0c413}">
+          <x14:cfRule type="dataBar" id="{4b8475bd-4f9c-43f0-a8aa-5e9e511a1212}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11972,7 +11958,7 @@
           <xm:sqref>G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{af45055e-71a5-493e-b07a-6119f0a58aba}">
+          <x14:cfRule type="dataBar" id="{02e0d91d-c48b-46c9-8ff7-bfae729ae080}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11987,7 +11973,7 @@
           <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dac44598-d801-4943-95d4-6aae60f28841}">
+          <x14:cfRule type="dataBar" id="{efc05f65-e5ea-498f-a951-53f336fe5246}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12002,7 +11988,7 @@
           <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc4bc02b-b668-45e7-812d-6092bdd7b661}">
+          <x14:cfRule type="dataBar" id="{774d6c23-fa5c-4ce9-a556-51c0d8d66220}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12017,7 +12003,7 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29edfcfb-fdaa-4d81-812a-c5c969868a11}">
+          <x14:cfRule type="dataBar" id="{32520adf-50d4-4aa3-9587-540e9bc009a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12032,7 +12018,7 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{67236213-7033-4a97-8b06-cd7cf591e77c}">
+          <x14:cfRule type="dataBar" id="{36dca147-4dd4-4319-813e-b5906a1681d0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12047,7 +12033,7 @@
           <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{66aed971-7f35-4878-b223-a7e1fc753511}">
+          <x14:cfRule type="dataBar" id="{1aeb8039-4818-403c-ba8c-eb571baa3bcf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12062,7 +12048,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f0be4f02-fddc-4f1f-bd67-cdfd1a726f3b}">
+          <x14:cfRule type="dataBar" id="{ada1752e-56b6-4548-9b35-ee20b6755b7c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12077,7 +12063,7 @@
           <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f4a00e4-4f62-4220-ae03-efa757ec1c2a}">
+          <x14:cfRule type="dataBar" id="{b6505818-4292-417f-a4e9-2dd252340d31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12092,7 +12078,7 @@
           <xm:sqref>G75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d21e8c09-1d53-4c47-8511-ded5ff157c46}">
+          <x14:cfRule type="dataBar" id="{b52a49ff-ccd8-4de3-ba1e-27b985e97dab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12107,7 +12093,7 @@
           <xm:sqref>G6:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0aa1d928-b3dc-4203-88c7-685a6ac0b70f}">
+          <x14:cfRule type="dataBar" id="{6601fafc-14e5-4c19-a6aa-6b87dd8ef597}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12122,7 +12108,7 @@
           <xm:sqref>G36:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4abbaef8-c1bb-4643-b166-6695c865b852}">
+          <x14:cfRule type="dataBar" id="{2ac6c9a7-7627-43b5-a865-125ab32b6375}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12137,7 +12123,7 @@
           <xm:sqref>G59:G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a07dfbc-a275-4c9a-aa05-a3827fedf4a7}">
+          <x14:cfRule type="dataBar" id="{7d5266a9-42d7-4a60-afd2-96a4761fae53}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8655" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="13" r:id="rId1"/>
@@ -3625,9 +3625,9 @@
   <dimension ref="A1:CH78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W45" sqref="W45"/>
+      <selection pane="bottomLeft" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75"/>
@@ -7210,7 +7210,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="39">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="H39" s="40">
         <f t="shared" si="36"/>
@@ -10637,7 +10637,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70bfad87-a20c-4320-bb34-9c112269101f}</x14:id>
+          <x14:id>{869d8ef4-a541-42d4-917b-3be439b062b1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10651,7 +10651,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52eb4110-09c8-4a3a-9fc8-aeff05ad6b1a}</x14:id>
+          <x14:id>{02829368-8467-4835-85cc-afa4c155b363}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10665,7 +10665,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7b1d950e-3b86-46dd-ab5f-212ab6bb816c}</x14:id>
+          <x14:id>{1e83aebb-a8a0-487a-adb3-ca41569f9dfc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10679,7 +10679,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18a6eef8-65fd-44e2-bc8c-cbfa2e94c57a}</x14:id>
+          <x14:id>{8e0bb404-e3b9-465b-995d-e347f97e8c84}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10693,7 +10693,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2380a7f4-428c-4b50-8fe8-baf7ce1e9c3a}</x14:id>
+          <x14:id>{4bf70b17-d936-49ea-a8e3-1b12f4e5e1ab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10707,7 +10707,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0706e1c4-181a-4fe6-ae1b-6de42cda6586}</x14:id>
+          <x14:id>{fa176109-c73c-466c-af80-8fc3c32b47c0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10721,7 +10721,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{54b09635-2b63-41a7-af5e-4c1cafbae0eb}</x14:id>
+          <x14:id>{601e84b3-8a0c-43be-a036-1d7d2b820b60}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10735,7 +10735,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{beb87ab7-fd00-4949-8a37-7c4ffbbdbf03}</x14:id>
+          <x14:id>{95e12536-10f9-40e2-8c7c-fd963b4ad2a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10749,7 +10749,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c946a75c-7e57-43ab-855d-8c911b4bde19}</x14:id>
+          <x14:id>{f89866b4-40da-4ea7-9a54-a6cd399f30c9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10763,7 +10763,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8eb3e03c-4f9e-496d-b570-e5430c0bc1a5}</x14:id>
+          <x14:id>{64afa859-ad98-4abf-a0d6-5618d1a1c27c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10777,7 +10777,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99051212-2754-42c2-9a57-d6fbc09e4895}</x14:id>
+          <x14:id>{c86e633f-9aee-4b0a-b429-b059bbd2f08d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10791,7 +10791,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f1f96614-aa0a-4e5b-a035-7beed9e556b1}</x14:id>
+          <x14:id>{4ce9a45c-762b-4f23-9a35-be338bf6af89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10805,7 +10805,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a29d738-da29-4fd1-a788-c11d0fb846f8}</x14:id>
+          <x14:id>{f9dbd2e9-586c-4fda-8b3d-f50b8f58e0e4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10819,7 +10819,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{df68f0cc-641b-4ee7-9783-765c2e1fe33b}</x14:id>
+          <x14:id>{f79b0cda-d812-4bc4-a280-ad403ab9e4ee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10833,7 +10833,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80863224-5389-4803-8efe-e7aac5eb26a7}</x14:id>
+          <x14:id>{303a764d-b901-4754-9e24-d687563ecfe8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10847,7 +10847,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c977cd7e-b5ce-4bff-85bc-c05f83cf99ea}</x14:id>
+          <x14:id>{ba9590fb-53ef-4abc-b00a-be219792a3f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10861,7 +10861,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{263d322c-2605-4ff8-b106-56ddf95b08f3}</x14:id>
+          <x14:id>{de230ee4-1d1e-40bf-8dbc-e4b3e34fe4cd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10875,7 +10875,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10b4d228-1d8d-4314-bc8b-a582b1d51d44}</x14:id>
+          <x14:id>{679595dc-a84a-4145-9cd2-e3e531128c8c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10889,7 +10889,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06c0c5b0-78b7-4d4f-a595-1b65ee0431a2}</x14:id>
+          <x14:id>{eed96ea2-ad80-4e01-88b8-47dfa67ff014}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10903,7 +10903,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01ff6e29-50f5-4058-b778-ed5443f43316}</x14:id>
+          <x14:id>{2be437d8-dccb-42ce-8989-1e4f15ac4d1b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10917,7 +10917,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5e8309d2-0b4f-453a-9071-20e370be8cbd}</x14:id>
+          <x14:id>{50e45153-0618-4d10-a1a0-e2898c5adfc6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10931,7 +10931,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebbac927-c5dc-4f0f-9114-2ffcb3b8e976}</x14:id>
+          <x14:id>{7272385e-899a-44a5-a363-3f0f10f03c16}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10945,7 +10945,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0964c1db-fb1e-4370-845d-4b7fc37da4d3}</x14:id>
+          <x14:id>{e1a2e8c6-5b5b-4b7f-9323-3f600d32af9d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10959,7 +10959,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{128e97a7-f1b9-4aa6-997c-5265335b4e5a}</x14:id>
+          <x14:id>{372694d9-71c5-4463-b49a-f1432f87891f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10973,7 +10973,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f07f07f-5528-4c97-bfb7-ee593045ca04}</x14:id>
+          <x14:id>{857e6c8a-9f0f-4b2b-9f41-a5618ce78877}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10987,7 +10987,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c113e421-3fa3-4bb7-bc03-b0a1a7d54384}</x14:id>
+          <x14:id>{45dfec0d-f6da-4b27-b1b9-0657559eda49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11001,7 +11001,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{077fd9f4-d73d-42cb-bfa5-2a9aadf1b2a2}</x14:id>
+          <x14:id>{0bd653dc-9a18-4658-9200-2eac74ee1175}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11015,7 +11015,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc3da221-2238-4403-a49d-c7ba7bf021b0}</x14:id>
+          <x14:id>{e8acaeb1-81b8-4f6a-9ad9-f9626e022450}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11029,7 +11029,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2082b07-5f80-4c34-a4df-5bc13ad8bd78}</x14:id>
+          <x14:id>{a5d9761d-6d0f-45e9-92a7-9b68ac7ddbd5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11043,7 +11043,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc4d8010-e836-4dba-a3f4-81198b6a4f51}</x14:id>
+          <x14:id>{016b9af5-e3ea-45b2-8d09-13887712d9c6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11057,7 +11057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1f44b3a-e0fc-42af-b3d1-9639fb0cfd9f}</x14:id>
+          <x14:id>{e2c2ff2d-e1a5-451a-93ca-2639747a50c8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11071,7 +11071,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6eae8cc3-b3b3-49fd-bb36-9713e563426a}</x14:id>
+          <x14:id>{8fa61b16-8000-400e-9c49-c1cc72cfd9d5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11085,7 +11085,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4b8475bd-4f9c-43f0-a8aa-5e9e511a1212}</x14:id>
+          <x14:id>{ad58ba8a-935e-4848-85d5-9c8e5a9ed04e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11099,7 +11099,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02e0d91d-c48b-46c9-8ff7-bfae729ae080}</x14:id>
+          <x14:id>{190acd31-404c-4da6-bc7f-996d341fec32}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11113,7 +11113,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{efc05f65-e5ea-498f-a951-53f336fe5246}</x14:id>
+          <x14:id>{34d78e2c-890c-4bf7-b142-68fbbf84fef7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11127,7 +11127,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{774d6c23-fa5c-4ce9-a556-51c0d8d66220}</x14:id>
+          <x14:id>{5fd7dbfa-bcc8-4087-8c6d-44cf94b6c144}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11141,7 +11141,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32520adf-50d4-4aa3-9587-540e9bc009a2}</x14:id>
+          <x14:id>{1017e4c4-9927-456c-ad0b-ed4b7fd028db}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11155,7 +11155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36dca147-4dd4-4319-813e-b5906a1681d0}</x14:id>
+          <x14:id>{86831053-dcd3-42aa-a213-244110b34b94}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11169,7 +11169,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1aeb8039-4818-403c-ba8c-eb571baa3bcf}</x14:id>
+          <x14:id>{d24e60ee-befb-4a09-bb62-1739af5bdae0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11183,7 +11183,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ada1752e-56b6-4548-9b35-ee20b6755b7c}</x14:id>
+          <x14:id>{d9285bcc-4d83-4c20-bf62-d7bae4d49587}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11197,7 +11197,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6505818-4292-417f-a4e9-2dd252340d31}</x14:id>
+          <x14:id>{ce955c71-5ce3-4b82-909c-3b7f1fe52f0b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11222,7 +11222,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b52a49ff-ccd8-4de3-ba1e-27b985e97dab}</x14:id>
+          <x14:id>{32669136-82bb-4141-856c-77e0bce7f98b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11236,7 +11236,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6601fafc-14e5-4c19-a6aa-6b87dd8ef597}</x14:id>
+          <x14:id>{5439099d-1855-4706-ba2a-9cc52e7c8619}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11250,7 +11250,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2ac6c9a7-7627-43b5-a865-125ab32b6375}</x14:id>
+          <x14:id>{adcb3e26-8d6a-454d-9090-8b0e968cc451}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11264,7 +11264,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7d5266a9-42d7-4a60-afd2-96a4761fae53}</x14:id>
+          <x14:id>{23db24a5-ae2e-4dd3-b649-69130643fe08}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11426,8 +11426,8 @@
   <pageSetup paperSize="1" scale="60" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A11 A8 A17" formula="1"/>
-    <ignoredError sqref="D8 D11 F8:G8 F11:G11 A2 D17 F17:G17" unlockedFormula="1"/>
+    <ignoredError sqref="A17 A8 A11" formula="1"/>
+    <ignoredError sqref="F17:G17 D17 A2 F11:G11 F8:G8 D11 D8" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11463,7 +11463,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70bfad87-a20c-4320-bb34-9c112269101f}">
+          <x14:cfRule type="dataBar" id="{869d8ef4-a541-42d4-917b-3be439b062b1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11478,7 +11478,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52eb4110-09c8-4a3a-9fc8-aeff05ad6b1a}">
+          <x14:cfRule type="dataBar" id="{02829368-8467-4835-85cc-afa4c155b363}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11493,7 +11493,7 @@
           <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7b1d950e-3b86-46dd-ab5f-212ab6bb816c}">
+          <x14:cfRule type="dataBar" id="{1e83aebb-a8a0-487a-adb3-ca41569f9dfc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11508,7 +11508,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{18a6eef8-65fd-44e2-bc8c-cbfa2e94c57a}">
+          <x14:cfRule type="dataBar" id="{8e0bb404-e3b9-465b-995d-e347f97e8c84}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11523,7 +11523,7 @@
           <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2380a7f4-428c-4b50-8fe8-baf7ce1e9c3a}">
+          <x14:cfRule type="dataBar" id="{4bf70b17-d936-49ea-a8e3-1b12f4e5e1ab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11538,7 +11538,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0706e1c4-181a-4fe6-ae1b-6de42cda6586}">
+          <x14:cfRule type="dataBar" id="{fa176109-c73c-466c-af80-8fc3c32b47c0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11553,7 +11553,7 @@
           <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{54b09635-2b63-41a7-af5e-4c1cafbae0eb}">
+          <x14:cfRule type="dataBar" id="{601e84b3-8a0c-43be-a036-1d7d2b820b60}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11568,7 +11568,7 @@
           <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{beb87ab7-fd00-4949-8a37-7c4ffbbdbf03}">
+          <x14:cfRule type="dataBar" id="{95e12536-10f9-40e2-8c7c-fd963b4ad2a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11583,7 +11583,7 @@
           <xm:sqref>G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c946a75c-7e57-43ab-855d-8c911b4bde19}">
+          <x14:cfRule type="dataBar" id="{f89866b4-40da-4ea7-9a54-a6cd399f30c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11598,7 +11598,7 @@
           <xm:sqref>G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8eb3e03c-4f9e-496d-b570-e5430c0bc1a5}">
+          <x14:cfRule type="dataBar" id="{64afa859-ad98-4abf-a0d6-5618d1a1c27c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11613,7 +11613,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{99051212-2754-42c2-9a57-d6fbc09e4895}">
+          <x14:cfRule type="dataBar" id="{c86e633f-9aee-4b0a-b429-b059bbd2f08d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11628,7 +11628,7 @@
           <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f1f96614-aa0a-4e5b-a035-7beed9e556b1}">
+          <x14:cfRule type="dataBar" id="{4ce9a45c-762b-4f23-9a35-be338bf6af89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11643,7 +11643,7 @@
           <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a29d738-da29-4fd1-a788-c11d0fb846f8}">
+          <x14:cfRule type="dataBar" id="{f9dbd2e9-586c-4fda-8b3d-f50b8f58e0e4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11658,7 +11658,7 @@
           <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{df68f0cc-641b-4ee7-9783-765c2e1fe33b}">
+          <x14:cfRule type="dataBar" id="{f79b0cda-d812-4bc4-a280-ad403ab9e4ee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11673,7 +11673,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{80863224-5389-4803-8efe-e7aac5eb26a7}">
+          <x14:cfRule type="dataBar" id="{303a764d-b901-4754-9e24-d687563ecfe8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11688,7 +11688,7 @@
           <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c977cd7e-b5ce-4bff-85bc-c05f83cf99ea}">
+          <x14:cfRule type="dataBar" id="{ba9590fb-53ef-4abc-b00a-be219792a3f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11703,7 +11703,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{263d322c-2605-4ff8-b106-56ddf95b08f3}">
+          <x14:cfRule type="dataBar" id="{de230ee4-1d1e-40bf-8dbc-e4b3e34fe4cd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11718,7 +11718,7 @@
           <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10b4d228-1d8d-4314-bc8b-a582b1d51d44}">
+          <x14:cfRule type="dataBar" id="{679595dc-a84a-4145-9cd2-e3e531128c8c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11733,7 +11733,7 @@
           <xm:sqref>G46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{06c0c5b0-78b7-4d4f-a595-1b65ee0431a2}">
+          <x14:cfRule type="dataBar" id="{eed96ea2-ad80-4e01-88b8-47dfa67ff014}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11748,7 +11748,7 @@
           <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01ff6e29-50f5-4058-b778-ed5443f43316}">
+          <x14:cfRule type="dataBar" id="{2be437d8-dccb-42ce-8989-1e4f15ac4d1b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11763,7 +11763,7 @@
           <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5e8309d2-0b4f-453a-9071-20e370be8cbd}">
+          <x14:cfRule type="dataBar" id="{50e45153-0618-4d10-a1a0-e2898c5adfc6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11778,7 +11778,7 @@
           <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ebbac927-c5dc-4f0f-9114-2ffcb3b8e976}">
+          <x14:cfRule type="dataBar" id="{7272385e-899a-44a5-a363-3f0f10f03c16}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11793,7 +11793,7 @@
           <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0964c1db-fb1e-4370-845d-4b7fc37da4d3}">
+          <x14:cfRule type="dataBar" id="{e1a2e8c6-5b5b-4b7f-9323-3f600d32af9d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11808,7 +11808,7 @@
           <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{128e97a7-f1b9-4aa6-997c-5265335b4e5a}">
+          <x14:cfRule type="dataBar" id="{372694d9-71c5-4463-b49a-f1432f87891f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11823,7 +11823,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f07f07f-5528-4c97-bfb7-ee593045ca04}">
+          <x14:cfRule type="dataBar" id="{857e6c8a-9f0f-4b2b-9f41-a5618ce78877}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11838,7 +11838,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c113e421-3fa3-4bb7-bc03-b0a1a7d54384}">
+          <x14:cfRule type="dataBar" id="{45dfec0d-f6da-4b27-b1b9-0657559eda49}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11853,7 +11853,7 @@
           <xm:sqref>G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{077fd9f4-d73d-42cb-bfa5-2a9aadf1b2a2}">
+          <x14:cfRule type="dataBar" id="{0bd653dc-9a18-4658-9200-2eac74ee1175}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11868,7 +11868,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc3da221-2238-4403-a49d-c7ba7bf021b0}">
+          <x14:cfRule type="dataBar" id="{e8acaeb1-81b8-4f6a-9ad9-f9626e022450}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11883,7 +11883,7 @@
           <xm:sqref>G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a2082b07-5f80-4c34-a4df-5bc13ad8bd78}">
+          <x14:cfRule type="dataBar" id="{a5d9761d-6d0f-45e9-92a7-9b68ac7ddbd5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11898,7 +11898,7 @@
           <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bc4d8010-e836-4dba-a3f4-81198b6a4f51}">
+          <x14:cfRule type="dataBar" id="{016b9af5-e3ea-45b2-8d09-13887712d9c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11913,7 +11913,7 @@
           <xm:sqref>G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1f44b3a-e0fc-42af-b3d1-9639fb0cfd9f}">
+          <x14:cfRule type="dataBar" id="{e2c2ff2d-e1a5-451a-93ca-2639747a50c8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11928,7 +11928,7 @@
           <xm:sqref>G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6eae8cc3-b3b3-49fd-bb36-9713e563426a}">
+          <x14:cfRule type="dataBar" id="{8fa61b16-8000-400e-9c49-c1cc72cfd9d5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11943,7 +11943,7 @@
           <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4b8475bd-4f9c-43f0-a8aa-5e9e511a1212}">
+          <x14:cfRule type="dataBar" id="{ad58ba8a-935e-4848-85d5-9c8e5a9ed04e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11958,7 +11958,7 @@
           <xm:sqref>G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02e0d91d-c48b-46c9-8ff7-bfae729ae080}">
+          <x14:cfRule type="dataBar" id="{190acd31-404c-4da6-bc7f-996d341fec32}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11973,7 +11973,7 @@
           <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{efc05f65-e5ea-498f-a951-53f336fe5246}">
+          <x14:cfRule type="dataBar" id="{34d78e2c-890c-4bf7-b142-68fbbf84fef7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11988,7 +11988,7 @@
           <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{774d6c23-fa5c-4ce9-a556-51c0d8d66220}">
+          <x14:cfRule type="dataBar" id="{5fd7dbfa-bcc8-4087-8c6d-44cf94b6c144}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12003,7 +12003,7 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{32520adf-50d4-4aa3-9587-540e9bc009a2}">
+          <x14:cfRule type="dataBar" id="{1017e4c4-9927-456c-ad0b-ed4b7fd028db}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12018,7 +12018,7 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36dca147-4dd4-4319-813e-b5906a1681d0}">
+          <x14:cfRule type="dataBar" id="{86831053-dcd3-42aa-a213-244110b34b94}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12033,7 +12033,7 @@
           <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1aeb8039-4818-403c-ba8c-eb571baa3bcf}">
+          <x14:cfRule type="dataBar" id="{d24e60ee-befb-4a09-bb62-1739af5bdae0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12048,7 +12048,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ada1752e-56b6-4548-9b35-ee20b6755b7c}">
+          <x14:cfRule type="dataBar" id="{d9285bcc-4d83-4c20-bf62-d7bae4d49587}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12063,7 +12063,7 @@
           <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b6505818-4292-417f-a4e9-2dd252340d31}">
+          <x14:cfRule type="dataBar" id="{ce955c71-5ce3-4b82-909c-3b7f1fe52f0b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12078,7 +12078,7 @@
           <xm:sqref>G75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b52a49ff-ccd8-4de3-ba1e-27b985e97dab}">
+          <x14:cfRule type="dataBar" id="{32669136-82bb-4141-856c-77e0bce7f98b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12093,7 +12093,7 @@
           <xm:sqref>G6:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6601fafc-14e5-4c19-a6aa-6b87dd8ef597}">
+          <x14:cfRule type="dataBar" id="{5439099d-1855-4706-ba2a-9cc52e7c8619}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12108,7 +12108,7 @@
           <xm:sqref>G36:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2ac6c9a7-7627-43b5-a865-125ab32b6375}">
+          <x14:cfRule type="dataBar" id="{adcb3e26-8d6a-454d-9090-8b0e968cc451}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12123,7 +12123,7 @@
           <xm:sqref>G59:G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7d5266a9-42d7-4a60-afd2-96a4761fae53}">
+          <x14:cfRule type="dataBar" id="{23db24a5-ae2e-4dd3-b649-69130643fe08}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/甘特图.xlsx
+++ b/甘特图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6855" activeTab="2"/>
+    <workbookView windowWidth="18900" windowHeight="8655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="13" r:id="rId1"/>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>[项目名称] 项目任务明细</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>账目管理与用户选购接口设计</t>
+  </si>
+  <si>
+    <t>实现</t>
   </si>
   <si>
     <t>编码：店主-网站书店简介模块</t>
@@ -1341,13 +1344,13 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3624,10 +3627,10 @@
   </sheetPr>
   <dimension ref="A1:CH78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="12.75"/>
@@ -6950,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="42"/>
@@ -7028,7 +7031,7 @@
         <v>5.1</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="36">
@@ -7112,7 +7115,7 @@
         <v>5.2</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="36">
@@ -7196,7 +7199,7 @@
         <v>5.3</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="47"/>
       <c r="D39" s="36">
@@ -7280,7 +7283,7 @@
         <v>5.4</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="47"/>
       <c r="D40" s="36">
@@ -7364,7 +7367,7 @@
         <v>5.5</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="47"/>
       <c r="D41" s="36">
@@ -7448,7 +7451,7 @@
         <v>5.6</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="47"/>
       <c r="D42" s="36">
@@ -7532,7 +7535,7 @@
         <v>5.7</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="47"/>
       <c r="D43" s="36">
@@ -7616,7 +7619,7 @@
         <v>5.8</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="36">
@@ -7700,7 +7703,7 @@
         <v>5.9</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="36">
@@ -7784,7 +7787,7 @@
         <v>5.10</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="36">
@@ -7868,7 +7871,7 @@
         <v>5.11</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="36">
@@ -7952,7 +7955,7 @@
         <v>5.12</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="47"/>
       <c r="D48" s="36">
@@ -8036,7 +8039,7 @@
         <v>5.13</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="47"/>
       <c r="D49" s="36">
@@ -8120,7 +8123,7 @@
         <v>5.14</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="36">
@@ -8204,7 +8207,7 @@
         <v>5.15</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="47"/>
       <c r="D51" s="36">
@@ -8288,7 +8291,7 @@
         <v>5.16</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="47"/>
       <c r="D52" s="36">
@@ -8372,7 +8375,7 @@
         <v>5.17</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="47"/>
       <c r="D53" s="36">
@@ -8456,7 +8459,7 @@
         <v>5.18</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="36">
@@ -8540,7 +8543,7 @@
         <v>5.19</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="36">
@@ -8624,7 +8627,7 @@
         <v>5.20</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="36">
@@ -8708,7 +8711,7 @@
         <v>5.21</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="36">
@@ -8792,7 +8795,7 @@
         <v>5.22</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="36">
@@ -8876,7 +8879,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="42"/>
@@ -8954,7 +8957,7 @@
         <v>6.1</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="36">
@@ -9038,7 +9041,7 @@
         <v>6.2</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="47"/>
       <c r="D61" s="36">
@@ -9122,7 +9125,7 @@
         <v>6.3</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="47"/>
       <c r="D62" s="36">
@@ -9206,7 +9209,7 @@
         <v>6.4</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="47"/>
       <c r="D63" s="36">
@@ -9290,7 +9293,7 @@
         <v>6.5</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="47"/>
       <c r="D64" s="36">
@@ -9374,7 +9377,7 @@
         <v>6.6</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="47"/>
       <c r="D65" s="36">
@@ -9458,7 +9461,7 @@
         <v>6.7</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="47"/>
       <c r="D66" s="36">
@@ -9542,7 +9545,7 @@
         <v>6.8</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="36">
@@ -9626,7 +9629,7 @@
         <v>6.9</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="47"/>
       <c r="D68" s="36">
@@ -9710,7 +9713,7 @@
         <v>6.10</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="47"/>
       <c r="D69" s="36">
@@ -9794,7 +9797,7 @@
         <v>6.11</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="47"/>
       <c r="D70" s="36">
@@ -9878,7 +9881,7 @@
         <v>6.12</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="36">
@@ -9962,7 +9965,7 @@
         <v>6.13</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="36">
@@ -10046,7 +10049,7 @@
         <v>6.14</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" s="47"/>
       <c r="D73" s="36">
@@ -10130,7 +10133,7 @@
         <v>6.15</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" s="47"/>
       <c r="D74" s="36">
@@ -10214,7 +10217,7 @@
         <v>6.16</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="36">
@@ -10298,7 +10301,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="42"/>
@@ -10376,7 +10379,7 @@
         <v>7.1</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="36">
@@ -10460,7 +10463,7 @@
         <v>7.2</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C78" s="47"/>
       <c r="D78" s="36">
@@ -10637,7 +10640,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{869d8ef4-a541-42d4-917b-3be439b062b1}</x14:id>
+          <x14:id>{6124ec96-08c3-4db4-9401-7765f0bc809b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10651,7 +10654,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02829368-8467-4835-85cc-afa4c155b363}</x14:id>
+          <x14:id>{51c700de-d379-45a0-af11-cac3f5cfc724}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10665,7 +10668,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e83aebb-a8a0-487a-adb3-ca41569f9dfc}</x14:id>
+          <x14:id>{dc62fdfb-5062-432d-aace-a362bf590a4c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10679,7 +10682,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e0bb404-e3b9-465b-995d-e347f97e8c84}</x14:id>
+          <x14:id>{e9bf3b08-d0ae-430f-a9f7-2d2fe39a212d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10693,7 +10696,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4bf70b17-d936-49ea-a8e3-1b12f4e5e1ab}</x14:id>
+          <x14:id>{709128a6-1f63-4ca1-bedf-e0648c28e2bc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10707,7 +10710,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa176109-c73c-466c-af80-8fc3c32b47c0}</x14:id>
+          <x14:id>{c268373c-d6cc-4016-a14c-6e0af0ebc775}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10721,7 +10724,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{601e84b3-8a0c-43be-a036-1d7d2b820b60}</x14:id>
+          <x14:id>{b0dff7cb-55bd-43e9-a386-10237b358098}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10735,7 +10738,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95e12536-10f9-40e2-8c7c-fd963b4ad2a7}</x14:id>
+          <x14:id>{42ff7b7f-c788-419d-97a9-10eb255e5f67}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10749,7 +10752,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f89866b4-40da-4ea7-9a54-a6cd399f30c9}</x14:id>
+          <x14:id>{71617cf8-3916-4d1f-a9eb-f6354c1b9fc3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10763,7 +10766,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64afa859-ad98-4abf-a0d6-5618d1a1c27c}</x14:id>
+          <x14:id>{65cc4ccf-9dea-41e9-b272-e24b1d6138a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10777,7 +10780,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c86e633f-9aee-4b0a-b429-b059bbd2f08d}</x14:id>
+          <x14:id>{cf60d3f1-c1eb-48e9-b60a-87e74ccedb65}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10791,7 +10794,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ce9a45c-762b-4f23-9a35-be338bf6af89}</x14:id>
+          <x14:id>{3eeaaa4d-057e-4d31-930a-bc65cfa8c27a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10805,7 +10808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9dbd2e9-586c-4fda-8b3d-f50b8f58e0e4}</x14:id>
+          <x14:id>{3178228c-e24e-4df9-bd0f-3365c18f48e0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10819,7 +10822,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f79b0cda-d812-4bc4-a280-ad403ab9e4ee}</x14:id>
+          <x14:id>{4932d7f4-38b4-46ee-ae91-2ac13d7092fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10833,7 +10836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{303a764d-b901-4754-9e24-d687563ecfe8}</x14:id>
+          <x14:id>{11936743-f192-42ce-a175-c5fbd188494e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10847,7 +10850,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba9590fb-53ef-4abc-b00a-be219792a3f5}</x14:id>
+          <x14:id>{9bcb92d7-16eb-4ada-bacc-75986e362611}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10861,7 +10864,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de230ee4-1d1e-40bf-8dbc-e4b3e34fe4cd}</x14:id>
+          <x14:id>{13caf63c-6488-479f-bb94-50c8ae51e219}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10875,7 +10878,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{679595dc-a84a-4145-9cd2-e3e531128c8c}</x14:id>
+          <x14:id>{5c0da366-90e7-4d5a-9ae8-83d90d88071a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10889,7 +10892,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eed96ea2-ad80-4e01-88b8-47dfa67ff014}</x14:id>
+          <x14:id>{76ed84b0-b9c7-4fda-9839-1138dac65840}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10903,7 +10906,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2be437d8-dccb-42ce-8989-1e4f15ac4d1b}</x14:id>
+          <x14:id>{75beee23-08b3-4b88-9879-e4512ddf21a1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10917,7 +10920,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50e45153-0618-4d10-a1a0-e2898c5adfc6}</x14:id>
+          <x14:id>{a8c5d755-57e1-4615-909d-3d9a6b5fa143}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10931,7 +10934,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7272385e-899a-44a5-a363-3f0f10f03c16}</x14:id>
+          <x14:id>{90ee0e63-274f-46f7-8e3d-48f8da030791}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10945,7 +10948,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1a2e8c6-5b5b-4b7f-9323-3f600d32af9d}</x14:id>
+          <x14:id>{1f24506a-0289-4c30-a7ce-3056f4b9eb01}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10959,7 +10962,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{372694d9-71c5-4463-b49a-f1432f87891f}</x14:id>
+          <x14:id>{66efe3b3-b38e-4525-b98d-59a3ad00edf7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10973,7 +10976,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{857e6c8a-9f0f-4b2b-9f41-a5618ce78877}</x14:id>
+          <x14:id>{02a838fd-a020-44f9-b23e-4096cda6dd26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10987,7 +10990,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45dfec0d-f6da-4b27-b1b9-0657559eda49}</x14:id>
+          <x14:id>{2a73f24f-1427-4967-bbb0-cb7b8ccb9521}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11001,7 +11004,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0bd653dc-9a18-4658-9200-2eac74ee1175}</x14:id>
+          <x14:id>{93166e76-5de9-435c-b82d-de857e97dba2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11015,7 +11018,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8acaeb1-81b8-4f6a-9ad9-f9626e022450}</x14:id>
+          <x14:id>{8d5efb42-26f5-4144-b6a9-2f8e9ba472c6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11029,7 +11032,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5d9761d-6d0f-45e9-92a7-9b68ac7ddbd5}</x14:id>
+          <x14:id>{9da138df-e97f-490d-b0d3-d9529ae38774}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11043,7 +11046,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{016b9af5-e3ea-45b2-8d09-13887712d9c6}</x14:id>
+          <x14:id>{e4c0aefc-9b6a-4e6f-9935-22a88461b9f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11057,7 +11060,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2c2ff2d-e1a5-451a-93ca-2639747a50c8}</x14:id>
+          <x14:id>{b25f0b85-22af-4a0f-a224-5b1c910d12ff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11071,7 +11074,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fa61b16-8000-400e-9c49-c1cc72cfd9d5}</x14:id>
+          <x14:id>{3123de7d-f292-42aa-969b-14dd1448087a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11085,7 +11088,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ad58ba8a-935e-4848-85d5-9c8e5a9ed04e}</x14:id>
+          <x14:id>{53318c30-11da-472e-97f3-14e83d934785}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11099,7 +11102,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{190acd31-404c-4da6-bc7f-996d341fec32}</x14:id>
+          <x14:id>{379d17fc-b22e-4a40-9f72-a6adbbbfdae6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11113,7 +11116,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34d78e2c-890c-4bf7-b142-68fbbf84fef7}</x14:id>
+          <x14:id>{a0308aab-9afa-47f7-ae10-0f2d7fbde484}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11127,7 +11130,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5fd7dbfa-bcc8-4087-8c6d-44cf94b6c144}</x14:id>
+          <x14:id>{05bc3d64-cdcb-4cf5-b9ce-5c6a1cedd4e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11141,7 +11144,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1017e4c4-9927-456c-ad0b-ed4b7fd028db}</x14:id>
+          <x14:id>{78ff9149-c1f0-4e96-ae26-d2d6746a4192}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11155,7 +11158,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86831053-dcd3-42aa-a213-244110b34b94}</x14:id>
+          <x14:id>{9b0cc1c8-b92f-4073-8c73-84f2e933bb8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11169,7 +11172,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d24e60ee-befb-4a09-bb62-1739af5bdae0}</x14:id>
+          <x14:id>{91b0a7e3-4c6b-4736-a438-21cb4b937416}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11183,7 +11186,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9285bcc-4d83-4c20-bf62-d7bae4d49587}</x14:id>
+          <x14:id>{089bb85d-ac33-489f-bfbc-8f94c74e185c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11197,7 +11200,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce955c71-5ce3-4b82-909c-3b7f1fe52f0b}</x14:id>
+          <x14:id>{45ffe16d-b779-4c85-9851-e160f668451c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11222,7 +11225,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32669136-82bb-4141-856c-77e0bce7f98b}</x14:id>
+          <x14:id>{8f747d86-b726-4c97-b1d8-34310d7d6b88}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11236,7 +11239,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5439099d-1855-4706-ba2a-9cc52e7c8619}</x14:id>
+          <x14:id>{71a45138-59a5-4870-811b-27be4d6eabbe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11250,7 +11253,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adcb3e26-8d6a-454d-9090-8b0e968cc451}</x14:id>
+          <x14:id>{a496cabc-3070-4d0f-8649-a026a93f6143}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11264,7 +11267,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23db24a5-ae2e-4dd3-b649-69130643fe08}</x14:id>
+          <x14:id>{a9ba9360-fefe-46cb-b919-cea4d19ec22d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11426,8 +11429,8 @@
   <pageSetup paperSize="1" scale="60" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A17 A8 A11" formula="1"/>
-    <ignoredError sqref="F17:G17 D17 A2 F11:G11 F8:G8 D11 D8" unlockedFormula="1"/>
+    <ignoredError sqref="A11 A8 A17" formula="1"/>
+    <ignoredError sqref="D8 D11 F8:G8 F11:G11 A2 D17 F17:G17" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11463,7 +11466,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{869d8ef4-a541-42d4-917b-3be439b062b1}">
+          <x14:cfRule type="dataBar" id="{6124ec96-08c3-4db4-9401-7765f0bc809b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11478,7 +11481,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02829368-8467-4835-85cc-afa4c155b363}">
+          <x14:cfRule type="dataBar" id="{51c700de-d379-45a0-af11-cac3f5cfc724}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11493,7 +11496,7 @@
           <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1e83aebb-a8a0-487a-adb3-ca41569f9dfc}">
+          <x14:cfRule type="dataBar" id="{dc62fdfb-5062-432d-aace-a362bf590a4c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11508,7 +11511,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e0bb404-e3b9-465b-995d-e347f97e8c84}">
+          <x14:cfRule type="dataBar" id="{e9bf3b08-d0ae-430f-a9f7-2d2fe39a212d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11523,7 +11526,7 @@
           <xm:sqref>G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4bf70b17-d936-49ea-a8e3-1b12f4e5e1ab}">
+          <x14:cfRule type="dataBar" id="{709128a6-1f63-4ca1-bedf-e0648c28e2bc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11538,7 +11541,7 @@
           <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa176109-c73c-466c-af80-8fc3c32b47c0}">
+          <x14:cfRule type="dataBar" id="{c268373c-d6cc-4016-a14c-6e0af0ebc775}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11553,7 +11556,7 @@
           <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{601e84b3-8a0c-43be-a036-1d7d2b820b60}">
+          <x14:cfRule type="dataBar" id="{b0dff7cb-55bd-43e9-a386-10237b358098}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11568,7 +11571,7 @@
           <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95e12536-10f9-40e2-8c7c-fd963b4ad2a7}">
+          <x14:cfRule type="dataBar" id="{42ff7b7f-c788-419d-97a9-10eb255e5f67}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11583,7 +11586,7 @@
           <xm:sqref>G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f89866b4-40da-4ea7-9a54-a6cd399f30c9}">
+          <x14:cfRule type="dataBar" id="{71617cf8-3916-4d1f-a9eb-f6354c1b9fc3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11598,7 +11601,7 @@
           <xm:sqref>G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64afa859-ad98-4abf-a0d6-5618d1a1c27c}">
+          <x14:cfRule type="dataBar" id="{65cc4ccf-9dea-41e9-b272-e24b1d6138a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11613,7 +11616,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c86e633f-9aee-4b0a-b429-b059bbd2f08d}">
+          <x14:cfRule type="dataBar" id="{cf60d3f1-c1eb-48e9-b60a-87e74ccedb65}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11628,7 +11631,7 @@
           <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4ce9a45c-762b-4f23-9a35-be338bf6af89}">
+          <x14:cfRule type="dataBar" id="{3eeaaa4d-057e-4d31-930a-bc65cfa8c27a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11643,7 +11646,7 @@
           <xm:sqref>G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9dbd2e9-586c-4fda-8b3d-f50b8f58e0e4}">
+          <x14:cfRule type="dataBar" id="{3178228c-e24e-4df9-bd0f-3365c18f48e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11658,7 +11661,7 @@
           <xm:sqref>G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f79b0cda-d812-4bc4-a280-ad403ab9e4ee}">
+          <x14:cfRule type="dataBar" id="{4932d7f4-38b4-46ee-ae91-2ac13d7092fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11673,7 +11676,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{303a764d-b901-4754-9e24-d687563ecfe8}">
+          <x14:cfRule type="dataBar" id="{11936743-f192-42ce-a175-c5fbd188494e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11688,7 +11691,7 @@
           <xm:sqref>G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba9590fb-53ef-4abc-b00a-be219792a3f5}">
+          <x14:cfRule type="dataBar" id="{9bcb92d7-16eb-4ada-bacc-75986e362611}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11703,7 +11706,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de230ee4-1d1e-40bf-8dbc-e4b3e34fe4cd}">
+          <x14:cfRule type="dataBar" id="{13caf63c-6488-479f-bb94-50c8ae51e219}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11718,7 +11721,7 @@
           <xm:sqref>G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{679595dc-a84a-4145-9cd2-e3e531128c8c}">
+          <x14:cfRule type="dataBar" id="{5c0da366-90e7-4d5a-9ae8-83d90d88071a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11733,7 +11736,7 @@
           <xm:sqref>G46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eed96ea2-ad80-4e01-88b8-47dfa67ff014}">
+          <x14:cfRule type="dataBar" id="{76ed84b0-b9c7-4fda-9839-1138dac65840}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11748,7 +11751,7 @@
           <xm:sqref>G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2be437d8-dccb-42ce-8989-1e4f15ac4d1b}">
+          <x14:cfRule type="dataBar" id="{75beee23-08b3-4b88-9879-e4512ddf21a1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11763,7 +11766,7 @@
           <xm:sqref>G48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{50e45153-0618-4d10-a1a0-e2898c5adfc6}">
+          <x14:cfRule type="dataBar" id="{a8c5d755-57e1-4615-909d-3d9a6b5fa143}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11778,7 +11781,7 @@
           <xm:sqref>G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7272385e-899a-44a5-a363-3f0f10f03c16}">
+          <x14:cfRule type="dataBar" id="{90ee0e63-274f-46f7-8e3d-48f8da030791}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11793,7 +11796,7 @@
           <xm:sqref>G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1a2e8c6-5b5b-4b7f-9323-3f600d32af9d}">
+          <x14:cfRule type="dataBar" id="{1f24506a-0289-4c30-a7ce-3056f4b9eb01}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11808,7 +11811,7 @@
           <xm:sqref>G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{372694d9-71c5-4463-b49a-f1432f87891f}">
+          <x14:cfRule type="dataBar" id="{66efe3b3-b38e-4525-b98d-59a3ad00edf7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11823,7 +11826,7 @@
           <xm:sqref>G52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{857e6c8a-9f0f-4b2b-9f41-a5618ce78877}">
+          <x14:cfRule type="dataBar" id="{02a838fd-a020-44f9-b23e-4096cda6dd26}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11838,7 +11841,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45dfec0d-f6da-4b27-b1b9-0657559eda49}">
+          <x14:cfRule type="dataBar" id="{2a73f24f-1427-4967-bbb0-cb7b8ccb9521}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11853,7 +11856,7 @@
           <xm:sqref>G54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0bd653dc-9a18-4658-9200-2eac74ee1175}">
+          <x14:cfRule type="dataBar" id="{93166e76-5de9-435c-b82d-de857e97dba2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11868,7 +11871,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e8acaeb1-81b8-4f6a-9ad9-f9626e022450}">
+          <x14:cfRule type="dataBar" id="{8d5efb42-26f5-4144-b6a9-2f8e9ba472c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11883,7 +11886,7 @@
           <xm:sqref>G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5d9761d-6d0f-45e9-92a7-9b68ac7ddbd5}">
+          <x14:cfRule type="dataBar" id="{9da138df-e97f-490d-b0d3-d9529ae38774}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11898,7 +11901,7 @@
           <xm:sqref>G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{016b9af5-e3ea-45b2-8d09-13887712d9c6}">
+          <x14:cfRule type="dataBar" id="{e4c0aefc-9b6a-4e6f-9935-22a88461b9f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11913,7 +11916,7 @@
           <xm:sqref>G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e2c2ff2d-e1a5-451a-93ca-2639747a50c8}">
+          <x14:cfRule type="dataBar" id="{b25f0b85-22af-4a0f-a224-5b1c910d12ff}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11928,7 +11931,7 @@
           <xm:sqref>G65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fa61b16-8000-400e-9c49-c1cc72cfd9d5}">
+          <x14:cfRule type="dataBar" id="{3123de7d-f292-42aa-969b-14dd1448087a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11943,7 +11946,7 @@
           <xm:sqref>G66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ad58ba8a-935e-4848-85d5-9c8e5a9ed04e}">
+          <x14:cfRule type="dataBar" id="{53318c30-11da-472e-97f3-14e83d934785}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11958,7 +11961,7 @@
           <xm:sqref>G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{190acd31-404c-4da6-bc7f-996d341fec32}">
+          <x14:cfRule type="dataBar" id="{379d17fc-b22e-4a40-9f72-a6adbbbfdae6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11973,7 +11976,7 @@
           <xm:sqref>G68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34d78e2c-890c-4bf7-b142-68fbbf84fef7}">
+          <x14:cfRule type="dataBar" id="{a0308aab-9afa-47f7-ae10-0f2d7fbde484}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11988,7 +11991,7 @@
           <xm:sqref>G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5fd7dbfa-bcc8-4087-8c6d-44cf94b6c144}">
+          <x14:cfRule type="dataBar" id="{05bc3d64-cdcb-4cf5-b9ce-5c6a1cedd4e2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12003,7 +12006,7 @@
           <xm:sqref>G70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1017e4c4-9927-456c-ad0b-ed4b7fd028db}">
+          <x14:cfRule type="dataBar" id="{78ff9149-c1f0-4e96-ae26-d2d6746a4192}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12018,7 +12021,7 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86831053-dcd3-42aa-a213-244110b34b94}">
+          <x14:cfRule type="dataBar" id="{9b0cc1c8-b92f-4073-8c73-84f2e933bb8d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12033,7 +12036,7 @@
           <xm:sqref>G72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d24e60ee-befb-4a09-bb62-1739af5bdae0}">
+          <x14:cfRule type="dataBar" id="{91b0a7e3-4c6b-4736-a438-21cb4b937416}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12048,7 +12051,7 @@
           <xm:sqref>G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d9285bcc-4d83-4c20-bf62-d7bae4d49587}">
+          <x14:cfRule type="dataBar" id="{089bb85d-ac33-489f-bfbc-8f94c74e185c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12063,7 +12066,7 @@
           <xm:sqref>G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce955c71-5ce3-4b82-909c-3b7f1fe52f0b}">
+          <x14:cfRule type="dataBar" id="{45ffe16d-b779-4c85-9851-e160f668451c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12078,7 +12081,7 @@
           <xm:sqref>G75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{32669136-82bb-4141-856c-77e0bce7f98b}">
+          <x14:cfRule type="dataBar" id="{8f747d86-b726-4c97-b1d8-34310d7d6b88}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12093,7 +12096,7 @@
           <xm:sqref>G6:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5439099d-1855-4706-ba2a-9cc52e7c8619}">
+          <x14:cfRule type="dataBar" id="{71a45138-59a5-4870-811b-27be4d6eabbe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12108,7 +12111,7 @@
           <xm:sqref>G36:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adcb3e26-8d6a-454d-9090-8b0e968cc451}">
+          <x14:cfRule type="dataBar" id="{a496cabc-3070-4d0f-8649-a026a93f6143}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12123,7 +12126,7 @@
           <xm:sqref>G59:G64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23db24a5-ae2e-4dd3-b649-69130643fe08}">
+          <x14:cfRule type="dataBar" id="{a9ba9360-fefe-46cb-b919-cea4d19ec22d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
